--- a/componment_info_quiry/dest/已有物料.xlsx
+++ b/componment_info_quiry/dest/已有物料.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="133">
   <si>
     <t>Part Number</t>
   </si>
@@ -67,6 +67,12 @@
     <t>ROHS</t>
   </si>
   <si>
+    <t>20001-00001</t>
+  </si>
+  <si>
+    <t>20001-00002</t>
+  </si>
+  <si>
     <t>20001-00003</t>
   </si>
   <si>
@@ -76,25 +82,28 @@
     <t>20001-00005</t>
   </si>
   <si>
+    <t>20001-00006</t>
+  </si>
+  <si>
     <t>20001-00018</t>
   </si>
   <si>
-    <t>20001-00025</t>
-  </si>
-  <si>
-    <t>20001-00026</t>
-  </si>
-  <si>
-    <t>20001-00037</t>
+    <t>20001-00027</t>
+  </si>
+  <si>
+    <t>20001-00038</t>
   </si>
   <si>
     <t>20001-00051</t>
   </si>
   <si>
-    <t>20001-00455</t>
-  </si>
-  <si>
-    <t>21003-00004</t>
+    <t>20001-00055</t>
+  </si>
+  <si>
+    <t>20001-00056</t>
+  </si>
+  <si>
+    <t>20001-00463</t>
   </si>
   <si>
     <t>21003-00041</t>
@@ -106,10 +115,19 @@
     <t>21003-00043</t>
   </si>
   <si>
+    <t>21003-00049</t>
+  </si>
+  <si>
+    <t>21003-00300</t>
+  </si>
+  <si>
     <t>22007-00013</t>
   </si>
   <si>
-    <t>22007-00014</t>
+    <t>片状电阻;1/10;0.0;±1%;0603;RoHS</t>
+  </si>
+  <si>
+    <t>片状电阻;1/10W-10Ω±1%-0603;RoHS</t>
   </si>
   <si>
     <t>片状电阻;1/10W-100Ω±1%-0603;RoHS</t>
@@ -121,25 +139,28 @@
     <t>片状电阻;1/10W-10KΩ±1%-0603;RoHS</t>
   </si>
   <si>
+    <t>片状电阻;1/10W-100KΩ±1%-0603;RoHS</t>
+  </si>
+  <si>
     <t>片状电阻;1/10W-15KΩ±1%-0603;RoHS</t>
   </si>
   <si>
-    <t>片状电阻;1/10W-200Ω±1%-0603;RoHS</t>
-  </si>
-  <si>
-    <t>片状电阻;1/10W-2KΩ±1%-0603;RoHS</t>
-  </si>
-  <si>
-    <t>片状电阻;1/10W-3KΩ±1%-0603;RoHS</t>
+    <t>片状电阻;1/10W-20KΩ±1%-0603;RoHS</t>
+  </si>
+  <si>
+    <t>片状电阻;1/10W-30KΩ±1%-0603;RoHS</t>
   </si>
   <si>
     <t>片状电阻;1/10W-4.7KΩ±1%-0603;RoHS</t>
   </si>
   <si>
-    <t>片状电阻;1/4W;1kΩ±1%;1206;RoHS</t>
-  </si>
-  <si>
-    <t>片状电容;2.2uF±10%-16V-0805-X7R;RoHS</t>
+    <t>片状电阻;1/10W-510Ω±1%-0603;RoHS</t>
+  </si>
+  <si>
+    <t>片状电阻;1/10W-5.1KΩ±1%-0603;RoHS</t>
+  </si>
+  <si>
+    <t>片状电阻;1/2W;7.5Ω;±5%;1210;RoHS</t>
   </si>
   <si>
     <t>片状电容;50V;1nF;±10%;X7R;0603;RoHS</t>
@@ -151,10 +172,19 @@
     <t>片状电容;100nF±10%-50V-0603-X7R;RoHS</t>
   </si>
   <si>
+    <t>片状电容;100pF±5%-50V-0603-NPO;RoHS</t>
+  </si>
+  <si>
+    <t>片状电容;50V;220pF;±5%;NPO;0603;RoHS</t>
+  </si>
+  <si>
     <t>贴片NPN三极管;40V/0.6A/225mW/SOT-23;RoHS</t>
   </si>
   <si>
-    <t>贴片PNP三极管;40V/0.6A/225mW/SOT-23;RoHS</t>
+    <t>WR06X0000PTL;1/10W;0Ω;±1%;0603;0Ω±F-0603;</t>
+  </si>
+  <si>
+    <t>WR06X10R0FTL;RC0603FR-0710RL;0603WAF100XT5E;</t>
   </si>
   <si>
     <t>0603WAF100AT5E;WR06X1000FTL;100Ω±F-0603;</t>
@@ -166,25 +196,28 @@
     <t>0603WAF100CT5E;WR06X1002FTL;RC0603FR-0710KL;</t>
   </si>
   <si>
+    <t>100KΩ±F-0603;0603WAF1003T5E;WR06X1003FTL;</t>
+  </si>
+  <si>
     <t>WR06X1502FTL;0603WAF1502T5E;15KΩ±F-0603;</t>
   </si>
   <si>
-    <t>WR06X2000FTL;0603WAF2000T5E;200Ω±F-0603;</t>
-  </si>
-  <si>
-    <t>WR06X2001FTL;2KΩ±F-0603;0603WAF200BT5E;</t>
-  </si>
-  <si>
-    <t>WR06X3001FTL;0603WAF3001T5E;3KΩ±F-0603;</t>
+    <t>WR06X2002FTL;0603WAF2002T5E;20KΩ±F-0603;</t>
+  </si>
+  <si>
+    <t>WR06X3002FTL;30KΩ±F-0603;0603WAF3002T5E;</t>
   </si>
   <si>
     <t>WR06X4701FTL;4.7KΩ±F-0603;0603WAF4701T5E;</t>
   </si>
   <si>
-    <t>1206W4F1001T5E;WR12X1001FTL;RC1206FR-071KL;</t>
-  </si>
-  <si>
-    <t>CC0805KKX7R7BB225;C2012X7R1C225KT;0805B225K160;</t>
+    <t>WR06X5100FTL;0603WAF5100T5E;510Ω±F-0603;</t>
+  </si>
+  <si>
+    <t>RC0603FR-075K1L;0603WAF5101T5E;WR06X5101FTL;</t>
+  </si>
+  <si>
+    <t>1210W2J075JT5E;RC1210JR-077R5L;</t>
   </si>
   <si>
     <t>0603B102K500CT;GRM188R71H102KA01D;CC0603KRX7R9BB102;C1608X7R1H102KT;</t>
@@ -196,28 +229,31 @@
     <t>06035C104KAT2A;C1608X7R1H104KT;0603B104K500;CC0603KRX7R9BB104;</t>
   </si>
   <si>
+    <t>GRM1885C1H101JA01D;C1608COG1H101JT;CC0603JRNPO9BN101;0603N101J500CT;</t>
+  </si>
+  <si>
+    <t>0603CG221J500NT;</t>
+  </si>
+  <si>
     <t>MMBT4401LT1G;MMBT4401;LMBT4401LT1G;</t>
   </si>
   <si>
-    <t>MMBT4403;MMBT4403LT1G;LMBT4403LT1G;</t>
+    <t>华新科;厚声;国巨;</t>
+  </si>
+  <si>
+    <t>华新科;国巨;Uni-ohm;</t>
   </si>
   <si>
     <t>Uni-ohm;华新科;国巨;</t>
   </si>
   <si>
-    <t>华新科;厚声;国巨;</t>
+    <t>国巨;Uni-ohm;华新科;</t>
   </si>
   <si>
     <t>华新科;Uni-ohm;国巨;</t>
   </si>
   <si>
-    <t>华新科;国巨;Uni-ohm;</t>
-  </si>
-  <si>
-    <t>厚声;华新科;YAGEO;</t>
-  </si>
-  <si>
-    <t>国巨;TDK;华新科;</t>
+    <t>Uni-ohm;国巨;</t>
   </si>
   <si>
     <t>华新科;MURATA;国巨;TDK;</t>
@@ -229,58 +265,79 @@
     <t>AVX;TDK;华新科;国巨;</t>
   </si>
   <si>
+    <t>MURATA;TDK;国巨;华新科;</t>
+  </si>
+  <si>
+    <t>风华高科;</t>
+  </si>
+  <si>
     <t>ON;PANJIT;LRC;</t>
   </si>
   <si>
-    <t>PANJIT;ON;LRC;</t>
-  </si>
-  <si>
     <t>EACH</t>
   </si>
   <si>
-    <t>R357,R358,R359,R360,R361,R362,R363,R364,R365,R366,R367,R400,R401</t>
-  </si>
-  <si>
-    <t>R7,R9,R103,R104,R135,R137,R139,R141</t>
-  </si>
-  <si>
-    <t>R11,R13,R14,R15,R16,R17,R18,R19,R20,R21,R22,R23,R24,R25,R26,R27,R28,R29,R30,R31,R32,R33,R34,R35,R36,R37,R38,R39,R40,R41,R42,R43,R47,R48,R49,R50,R51,R52,R53,R54,R55,R68,R69,R70,R71,R73,R74,R75,R76,R77,R78,R79,R80,R81,R82,R83,R84,R85,R86,R87,R88,R89,R90,R91,R92,R93,R94,R97,R98,R99,R100,R101,R102,R105,R106,R108,R110,R111,R112,R113,R114,R115,R117,R118,R119,R120,R121,R122,R123,R124,R125,R126,R127,R128,R130,R131,R132,R133,R134,R136,R138,R140,R142,R143,R144,R145,R146,R147,R148,R149,R150,R151,R156,R157,R158,R159,R160,R161,R162,R171,R172,R173,R174,R175,R176,R177,R179,R180,R181,R182,R183,R184,R185,R186,R187,R188,R189,R192,R193,R194,R195,R197,R198,R199,R200,R201,R202,R203,R204,R223,R224,R227,R228,R259,R260,R261,R262,R263,R264,R265,R266,R267,R268,R269,R270,R271,R272,R287,R288,R303,R304,R305,R306,R307,R308,R309,R310,R311,R312,R313,R314,R315,R316,R317,R318,R319,R350,R352,R353,R354,R355,R368,R413</t>
-  </si>
-  <si>
-    <t>R3,R129</t>
-  </si>
-  <si>
-    <t>R64,R65,R66,R67,R107,R109,R116,R163,R164,R165,R166,R167,R168,R169,R170,R217,R218,R219,R220,R221,R222,R235,R236,R237,R238,R239,R240,R293,R294,R295,R296,R297,R298,R299,R300,R301,R302,R320,R321,R322,R351,R369,R370,R371,R372,R373,R374,R375,R376,R377,R378,R379,R405,R406,R407,R408</t>
-  </si>
-  <si>
-    <t>R8,R323</t>
-  </si>
-  <si>
-    <t>R191,R391,R392,R393,R394,R395,R396,R397</t>
-  </si>
-  <si>
-    <t>R10,R12,R72,R356,R398,R399</t>
-  </si>
-  <si>
-    <t>R1,R4,R5,R44,R45,R46</t>
-  </si>
-  <si>
-    <t>C160,C161</t>
-  </si>
-  <si>
-    <t>C86,C87,C92,C94,C101,C142,C143,C144,C146,C147,C148,C149,C163,C165,C166,C169,C170,C171,C172,C173,C174,C200,C201,C202,C203,C204,C205,C206,C207,C208,C209,C215,C216,C227,C228,C229,C236,C237,C238,C239,C240,C241,C242,C243,C244,C245,C246,C247,C248,C249,C250,C251,C252,C253,C254,C255,C256,C257,C258,C259,C260,C261,C262,C308,C309,C310</t>
-  </si>
-  <si>
-    <t>C44,C50,C51,C53,C54,C70,C71,C76,C77,C78,C79,C80,C81,C82,C83,C91,C93,C96,C97,C98,C99,C100,C102,C103,C104,C105,C106,C107,C108,C129,C134,C135,C136,C137,C138,C139,C140,C141,C150,C162,C302,C303,C311,C312,C313,C314,C315,C316</t>
-  </si>
-  <si>
-    <t>C1,C2,C3,C4,C5,C6,C7,C8,C9,C10,C11,C12,C13,C20,C21,C22,C23,C24,C25,C26,C27,C28,C29,C30,C31,C32,C33,C34,C35,C36,C37,C38,C39,C43,C45,C46,C49,C52,C55,C56,C57,C58,C59,C60,C61,C62,C63,C64,C65,C66,C67,C68,C72,C73,C74,C75,C89,C95,C109,C110,C111,C112,C113,C114,C115,C116,C117,C118,C119,C120,C121,C122,C123,C124,C125,C126,C127,C128,C130,C131,C151,C152,C153,C154,C155,C156,C157,C158,C159,C210,C224,C225,C232,C233,C234,C263,C264,C268,C269,C270,C271,C272,C273,C274,C275,C276,C288,C289,C292,C293,C294,C295,C296,C299,C300,C301,C306,C307</t>
-  </si>
-  <si>
-    <t>Q3,Q4</t>
-  </si>
-  <si>
-    <t>Q2</t>
+    <t>R106,R107,R108,R109,R110,R111,R112,R113,R131,R204,R205,R206</t>
+  </si>
+  <si>
+    <t>R27,R28,R31,R141</t>
+  </si>
+  <si>
+    <t>R23,R24</t>
+  </si>
+  <si>
+    <t>R55,R56,R57,R87,R103,R105,R121,R129,R132,R133,R134,R136,R137,R138,R140,R157,R158,R159,R161,R162</t>
+  </si>
+  <si>
+    <t>R1,R3,R5,R10,R11,R12,R13,R22,R25,R26,R29,R30,R33,R39,R42,R43,R44,R45,R46,R47,R49,R54,R59,R60,R65,R67,R68,R69,R76,R77,R78,R79,R80,R81,R82,R83,R84,R85,R86,R94,R95,R130</t>
+  </si>
+  <si>
+    <t>R9</t>
+  </si>
+  <si>
+    <t>R207</t>
+  </si>
+  <si>
+    <t>R17</t>
+  </si>
+  <si>
+    <t>R6,R7</t>
+  </si>
+  <si>
+    <t>R37,R38,R41,R48,R50,R51,R52,R53,R58,R61,R62,R63,R70,R71,R72,R74,R75</t>
+  </si>
+  <si>
+    <t>R40,R127,R135,R139,R142,R143,R144,R146,R149,R153,R156,R160</t>
+  </si>
+  <si>
+    <t>R2,R4,R8,R14</t>
+  </si>
+  <si>
+    <t>R145,R147,R148,R150,R151,R152,R154,R155</t>
+  </si>
+  <si>
+    <t>C26,C41,C42,C50,C54,C74,C75,C122</t>
+  </si>
+  <si>
+    <t>C34</t>
+  </si>
+  <si>
+    <t>C3,C4,C5,C6,C7,C8,C9,C10,C11,C12,C13,C14,C15,C16,C17,C18,C19,C20,C21,C22,C25,C27,C28,C31,C32,C33,C36,C38,C39,C43,C44,C45,C46,C47,C48,C49,C52,C56,C79,C101,C121</t>
+  </si>
+  <si>
+    <t>C23,C24,C29,C30,C35,C51,C55,C57,C58,C65,C66,C76,C77,C78,C81,C82,C83,C84,C86,C87,C92,C93,C94,C100,C107,C114,C115,C116,C117,C123</t>
+  </si>
+  <si>
+    <t>C67,C72,C73,C102,C103</t>
+  </si>
+  <si>
+    <t>Q1,Q3,Q6,Q9,Q14,Q19</t>
+  </si>
+  <si>
+    <t>C;B;C;</t>
+  </si>
+  <si>
+    <t>C;F;C;D;B;</t>
   </si>
   <si>
     <t>B;C;A;</t>
@@ -292,19 +349,22 @@
     <t>B;F;D;C;C;</t>
   </si>
   <si>
+    <t>A;B;C;</t>
+  </si>
+  <si>
     <t>C;B;B;</t>
   </si>
   <si>
-    <t>C;A;B;</t>
+    <t>C;C;C;</t>
   </si>
   <si>
     <t>C;F;A;B;</t>
   </si>
   <si>
-    <t>B;C;B;</t>
-  </si>
-  <si>
-    <t>C;C;C;</t>
+    <t>C;F;C;F;C;</t>
+  </si>
+  <si>
+    <t>F;C;C;</t>
   </si>
   <si>
     <t>C;B;B;B;</t>
@@ -316,6 +376,12 @@
     <t>C;B;C;D;B;</t>
   </si>
   <si>
+    <t>B;B;B;C;</t>
+  </si>
+  <si>
+    <t>C;</t>
+  </si>
+  <si>
     <t>B;B;B;</t>
   </si>
   <si>
@@ -325,16 +391,25 @@
     <t>深圳</t>
   </si>
   <si>
+    <t>RoHS;RoHS;RoHS;</t>
+  </si>
+  <si>
     <t xml:space="preserve"> ;RoHS; ;</t>
   </si>
   <si>
     <t>RoHS; ; ;</t>
   </si>
   <si>
-    <t>RoHS;RoHS;RoHS;</t>
+    <t xml:space="preserve"> ; ;RoHS;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ; ;</t>
   </si>
   <si>
     <t>RoHS;RoHS;RoHS;RoHS;</t>
+  </si>
+  <si>
+    <t>RoHS;</t>
   </si>
   <si>
     <t xml:space="preserve"> ; ; ;</t>
@@ -695,7 +770,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R16"/>
+  <dimension ref="A1:R20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -762,52 +837,52 @@
         <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D2" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="E2" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="F2" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="G2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H2" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="I2">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="J2">
-        <v>71855</v>
+        <v>44574</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>1398882</v>
+        <v>393497</v>
       </c>
       <c r="M2">
-        <v>37741</v>
+        <v>9586</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>145215</v>
+        <v>79124</v>
       </c>
       <c r="P2" t="s">
-        <v>89</v>
+        <v>106</v>
       </c>
       <c r="Q2" t="s">
-        <v>101</v>
+        <v>123</v>
       </c>
       <c r="R2" t="s">
-        <v>103</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -818,52 +893,52 @@
         <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D3" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="E3" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="F3" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="G3">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H3" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="I3">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="J3">
-        <v>95144</v>
+        <v>41233</v>
       </c>
       <c r="K3">
-        <v>690</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>1811811</v>
+        <v>472262</v>
       </c>
       <c r="M3">
-        <v>42687</v>
+        <v>11186</v>
       </c>
       <c r="N3">
-        <v>60000</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>50443</v>
+        <v>256074</v>
       </c>
       <c r="P3" t="s">
-        <v>90</v>
+        <v>107</v>
       </c>
       <c r="Q3" t="s">
-        <v>101</v>
+        <v>123</v>
       </c>
       <c r="R3" t="s">
-        <v>104</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -874,52 +949,52 @@
         <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D4" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="E4" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="F4" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="G4">
-        <v>193</v>
+        <v>2</v>
       </c>
       <c r="H4" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="I4">
-        <v>1980</v>
+        <v>70</v>
       </c>
       <c r="J4">
-        <v>102117</v>
+        <v>43497</v>
       </c>
       <c r="K4">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>8068838</v>
+        <v>809627</v>
       </c>
       <c r="M4">
-        <v>75131</v>
+        <v>21491</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>921114</v>
+        <v>116317</v>
       </c>
       <c r="P4" t="s">
-        <v>91</v>
+        <v>108</v>
       </c>
       <c r="Q4" t="s">
-        <v>101</v>
+        <v>123</v>
       </c>
       <c r="R4" t="s">
-        <v>105</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -930,52 +1005,52 @@
         <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D5" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="E5" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="F5" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="G5">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="H5" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="I5">
-        <v>70</v>
+        <v>250</v>
       </c>
       <c r="J5">
-        <v>77462</v>
+        <v>62286</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>260</v>
       </c>
       <c r="L5">
-        <v>613707</v>
+        <v>647039</v>
       </c>
       <c r="M5">
-        <v>12967</v>
+        <v>24812</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>6936</v>
+        <v>213828</v>
       </c>
       <c r="P5" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="Q5" t="s">
-        <v>102</v>
+        <v>123</v>
       </c>
       <c r="R5" t="s">
-        <v>105</v>
+        <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -986,52 +1061,52 @@
         <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D6" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="E6" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="F6" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="G6">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="H6" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="I6">
-        <v>610</v>
+        <v>470</v>
       </c>
       <c r="J6">
-        <v>30131</v>
+        <v>67957</v>
       </c>
       <c r="K6">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>98655</v>
+        <v>5831051</v>
       </c>
       <c r="M6">
-        <v>3773</v>
+        <v>40510</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>41790</v>
+        <v>602488</v>
       </c>
       <c r="P6" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="Q6" t="s">
-        <v>101</v>
+        <v>123</v>
       </c>
       <c r="R6" t="s">
-        <v>104</v>
+        <v>125</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -1042,52 +1117,52 @@
         <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D7" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="E7" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="F7" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="G7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H7" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="I7">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="J7">
-        <v>65233</v>
+        <v>31680</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>799365</v>
+        <v>489917</v>
       </c>
       <c r="M7">
-        <v>28793</v>
+        <v>11540</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>54413</v>
+        <v>100088</v>
       </c>
       <c r="P7" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="Q7" t="s">
-        <v>101</v>
+        <v>123</v>
       </c>
       <c r="R7" t="s">
-        <v>104</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -1098,52 +1173,52 @@
         <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D8" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="E8" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="F8" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="G8">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H8" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="I8">
-        <v>130</v>
+        <v>60</v>
       </c>
       <c r="J8">
-        <v>55810</v>
+        <v>48939</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>165497</v>
+        <v>492289</v>
       </c>
       <c r="M8">
-        <v>25481</v>
+        <v>7266</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>112373</v>
+        <v>21521</v>
       </c>
       <c r="P8" t="s">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="Q8" t="s">
-        <v>101</v>
+        <v>123</v>
       </c>
       <c r="R8" t="s">
-        <v>104</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -1154,52 +1229,52 @@
         <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D9" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="E9" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="F9" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="G9">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H9" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="I9">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="J9">
-        <v>61220</v>
+        <v>39485</v>
       </c>
       <c r="K9">
-        <v>545</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>1919477</v>
+        <v>459653</v>
       </c>
       <c r="M9">
-        <v>11442</v>
+        <v>17694</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>158040</v>
+        <v>29225</v>
       </c>
       <c r="P9" t="s">
-        <v>94</v>
+        <v>113</v>
       </c>
       <c r="Q9" t="s">
-        <v>101</v>
+        <v>123</v>
       </c>
       <c r="R9" t="s">
-        <v>104</v>
+        <v>125</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -1210,52 +1285,52 @@
         <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D10" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="E10" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="F10" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="G10">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H10" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="I10">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="J10">
-        <v>8541</v>
+        <v>15754</v>
       </c>
       <c r="K10">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>18651</v>
+        <v>193248</v>
       </c>
       <c r="M10">
-        <v>20</v>
+        <v>9099</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>5070</v>
+        <v>77000</v>
       </c>
       <c r="P10" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="Q10" t="s">
-        <v>101</v>
+        <v>123</v>
       </c>
       <c r="R10" t="s">
-        <v>103</v>
+        <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -1266,52 +1341,52 @@
         <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D11" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="E11" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="F11" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="G11">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="H11" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="I11">
+        <v>220</v>
+      </c>
+      <c r="J11">
+        <v>37561</v>
+      </c>
+      <c r="K11">
         <v>70</v>
       </c>
-      <c r="J11">
-        <v>35551</v>
-      </c>
-      <c r="K11">
-        <v>42066</v>
-      </c>
       <c r="L11">
-        <v>382542</v>
+        <v>1151523</v>
       </c>
       <c r="M11">
-        <v>6610</v>
+        <v>4744</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>81908</v>
+        <v>120575</v>
       </c>
       <c r="P11" t="s">
-        <v>96</v>
+        <v>114</v>
       </c>
       <c r="Q11" t="s">
-        <v>101</v>
+        <v>123</v>
       </c>
       <c r="R11" t="s">
-        <v>105</v>
+        <v>127</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -1322,52 +1397,52 @@
         <v>27</v>
       </c>
       <c r="C12" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D12" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="E12" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="F12" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="G12">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="H12" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="I12">
-        <v>710</v>
+        <v>170</v>
       </c>
       <c r="J12">
-        <v>49744</v>
+        <v>9235</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>187270</v>
+        <v>74895</v>
       </c>
       <c r="M12">
-        <v>5190</v>
+        <v>13496</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>7985</v>
+        <v>40296</v>
       </c>
       <c r="P12" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="Q12" t="s">
-        <v>101</v>
+        <v>123</v>
       </c>
       <c r="R12" t="s">
-        <v>106</v>
+        <v>127</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -1378,52 +1453,52 @@
         <v>28</v>
       </c>
       <c r="C13" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D13" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="E13" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="F13" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="G13">
-        <v>48</v>
+        <v>4</v>
       </c>
       <c r="H13" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="I13">
-        <v>530</v>
+        <v>90</v>
       </c>
       <c r="J13">
-        <v>108089</v>
+        <v>42604</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>2178107</v>
+        <v>2032951</v>
       </c>
       <c r="M13">
-        <v>26307</v>
+        <v>19758</v>
       </c>
       <c r="N13">
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>8759</v>
+        <v>71347</v>
       </c>
       <c r="P13" t="s">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="Q13" t="s">
-        <v>102</v>
+        <v>123</v>
       </c>
       <c r="R13" t="s">
-        <v>106</v>
+        <v>125</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -1434,52 +1509,52 @@
         <v>29</v>
       </c>
       <c r="C14" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D14" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="E14" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="F14" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="G14">
-        <v>118</v>
+        <v>8</v>
       </c>
       <c r="H14" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="I14">
-        <v>1230</v>
+        <v>130</v>
       </c>
       <c r="J14">
-        <v>103525</v>
+        <v>1671</v>
       </c>
       <c r="K14">
-        <v>1676</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>9266756</v>
+        <v>10963</v>
       </c>
       <c r="M14">
-        <v>74450</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>300000</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>9136</v>
+        <v>20</v>
       </c>
       <c r="P14" t="s">
-        <v>99</v>
+        <v>116</v>
       </c>
       <c r="Q14" t="s">
-        <v>102</v>
+        <v>124</v>
       </c>
       <c r="R14" t="s">
-        <v>106</v>
+        <v>129</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -1490,52 +1565,52 @@
         <v>30</v>
       </c>
       <c r="C15" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D15" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="E15" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="F15" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="G15">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H15" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="I15">
-        <v>20</v>
+        <v>130</v>
       </c>
       <c r="J15">
-        <v>160466</v>
+        <v>21847</v>
       </c>
       <c r="K15">
-        <v>540000</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>487971</v>
+        <v>143389</v>
       </c>
       <c r="M15">
-        <v>64857</v>
+        <v>1953</v>
       </c>
       <c r="N15">
-        <v>131000</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>5171</v>
+        <v>15224</v>
       </c>
       <c r="P15" t="s">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="Q15" t="s">
-        <v>102</v>
+        <v>123</v>
       </c>
       <c r="R15" t="s">
-        <v>107</v>
+        <v>130</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -1546,52 +1621,276 @@
         <v>31</v>
       </c>
       <c r="C16" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D16" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="E16" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="F16" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="H16" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="I16">
+        <v>60</v>
+      </c>
+      <c r="J16">
+        <v>79761</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1571997</v>
+      </c>
+      <c r="M16">
+        <v>14059</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>75770</v>
+      </c>
+      <c r="P16" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>123</v>
+      </c>
+      <c r="R16" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" t="s">
+        <v>70</v>
+      </c>
+      <c r="E17" t="s">
+        <v>82</v>
+      </c>
+      <c r="F17" t="s">
+        <v>86</v>
+      </c>
+      <c r="G17">
+        <v>41</v>
+      </c>
+      <c r="H17" t="s">
+        <v>102</v>
+      </c>
+      <c r="I17">
+        <v>460</v>
+      </c>
+      <c r="J17">
+        <v>72244</v>
+      </c>
+      <c r="K17">
+        <v>1676</v>
+      </c>
+      <c r="L17">
+        <v>6133336</v>
+      </c>
+      <c r="M17">
+        <v>40021</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>468980</v>
+      </c>
+      <c r="P17" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>123</v>
+      </c>
+      <c r="R17" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18" t="s">
+        <v>71</v>
+      </c>
+      <c r="E18" t="s">
+        <v>83</v>
+      </c>
+      <c r="F18" t="s">
+        <v>86</v>
+      </c>
+      <c r="G18">
+        <v>30</v>
+      </c>
+      <c r="H18" t="s">
+        <v>103</v>
+      </c>
+      <c r="I18">
+        <v>350</v>
+      </c>
+      <c r="J18">
+        <v>55303</v>
+      </c>
+      <c r="K18">
+        <v>32</v>
+      </c>
+      <c r="L18">
+        <v>884380</v>
+      </c>
+      <c r="M18">
+        <v>20304</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>130849</v>
+      </c>
+      <c r="P18" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>123</v>
+      </c>
+      <c r="R18" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" t="s">
+        <v>53</v>
+      </c>
+      <c r="D19" t="s">
+        <v>72</v>
+      </c>
+      <c r="E19" t="s">
+        <v>84</v>
+      </c>
+      <c r="F19" t="s">
+        <v>86</v>
+      </c>
+      <c r="G19">
+        <v>5</v>
+      </c>
+      <c r="H19" t="s">
+        <v>104</v>
+      </c>
+      <c r="I19">
+        <v>100</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>3840</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
         <v>10</v>
       </c>
-      <c r="J16">
-        <v>130581</v>
-      </c>
-      <c r="K16">
-        <v>33000</v>
-      </c>
-      <c r="L16">
-        <v>417963</v>
-      </c>
-      <c r="M16">
-        <v>38069</v>
-      </c>
-      <c r="N16">
-        <v>30000</v>
-      </c>
-      <c r="O16">
-        <v>18652</v>
-      </c>
-      <c r="P16" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>102</v>
-      </c>
-      <c r="R16" t="s">
-        <v>107</v>
+      <c r="P19" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>124</v>
+      </c>
+      <c r="R19" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" t="s">
+        <v>54</v>
+      </c>
+      <c r="D20" t="s">
+        <v>73</v>
+      </c>
+      <c r="E20" t="s">
+        <v>85</v>
+      </c>
+      <c r="F20" t="s">
+        <v>86</v>
+      </c>
+      <c r="G20">
+        <v>6</v>
+      </c>
+      <c r="H20" t="s">
+        <v>105</v>
+      </c>
+      <c r="I20">
+        <v>60</v>
+      </c>
+      <c r="J20">
+        <v>114246</v>
+      </c>
+      <c r="K20">
+        <v>15000</v>
+      </c>
+      <c r="L20">
+        <v>460087</v>
+      </c>
+      <c r="M20">
+        <v>34844</v>
+      </c>
+      <c r="N20">
+        <v>2000</v>
+      </c>
+      <c r="O20">
+        <v>115381</v>
+      </c>
+      <c r="P20" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>123</v>
+      </c>
+      <c r="R20" t="s">
+        <v>132</v>
       </c>
     </row>
   </sheetData>
